--- a/project_management/Planificateur de projet Gantt.xlsx
+++ b/project_management/Planificateur de projet Gantt.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4350551A-A74E-43E0-93C9-927D9F844EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D62E5-A8B9-4154-9A89-2D64F3B05ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificateur de projet'!$3:$4</definedName>
-    <definedName name="période_sélectionnée">'Planificateur de projet'!$H$2</definedName>
+    <definedName name="période_sélectionnée">'Planificateur de projet'!$I$2</definedName>
     <definedName name="PériodeDansPlan">'Planificateur de projet'!A$4=MEDIAN('Planificateur de projet'!A$4,'Planificateur de projet'!$C1,'Planificateur de projet'!$C1+'Planificateur de projet'!$D1-1)</definedName>
     <definedName name="PériodeDansRéel">'Planificateur de projet'!A$4=MEDIAN('Planificateur de projet'!A$4,'Planificateur de projet'!$E1,'Planificateur de projet'!$E1+'Planificateur de projet'!$F1-1)</definedName>
     <definedName name="Plan">PériodeDansPlan*('Planificateur de projet'!$C1&gt;0)</definedName>
     <definedName name="PourcentageAccompli">PourcentageAccompliAuDelà*PériodeDansPlan</definedName>
     <definedName name="PourcentageAccompliAuDelà">('Planificateur de projet'!A$4=MEDIAN('Planificateur de projet'!A$4,'Planificateur de projet'!$E1,'Planificateur de projet'!$E1+'Planificateur de projet'!$F1)*('Planificateur de projet'!$E1&gt;0))*(('Planificateur de projet'!A$4&lt;(INT('Planificateur de projet'!$E1+'Planificateur de projet'!$F1*'Planificateur de projet'!$G1)))+('Planificateur de projet'!A$4='Planificateur de projet'!$E1))*('Planificateur de projet'!$G1&gt;0)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificateur de projet'!$3:$4</definedName>
     <definedName name="Réel">(PériodeDansRéel*('Planificateur de projet'!$E1&gt;0))*PériodeDansPlan</definedName>
     <definedName name="RéelAuDelà">PériodeDansRéel*('Planificateur de projet'!$E1&gt;0)</definedName>
     <definedName name="TitreRégion..BO60">'Planificateur de projet'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ACTIVITÉ</t>
   </si>
@@ -216,6 +207,24 @@
   </si>
   <si>
     <t>Préparation du diagramme de Gantt</t>
+  </si>
+  <si>
+    <t>C, D, H</t>
+  </si>
+  <si>
+    <t>responsable(s)</t>
+  </si>
+  <si>
+    <t>D, H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C, D</t>
+  </si>
+  <si>
+    <t>C, H</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +374,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -451,6 +466,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -509,7 +539,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,18 +558,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -573,12 +591,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -615,8 +636,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -626,50 +668,21 @@
     <cellStyle name="En-têtes de période" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="En-têtes de projet" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Étiquette" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Légende de ce qui a été accompli" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Légende du plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Pourcentage accompli" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Texte explicatif" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -781,6 +794,35 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1027,213 +1069,218 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO25"/>
+  <dimension ref="B1:BP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="66" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.25" style="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:68" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="5"/>
+      <c r="I2" s="11">
         <v>19</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="23" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+    </row>
+    <row r="3" spans="2:68" s="8" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="3">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>6</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>8</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>11</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>12</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>13</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>14</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>15</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>16</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>17</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>18</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <v>19</v>
       </c>
-      <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
@@ -1274,453 +1321,499 @@
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
       <c r="BO4" s="3"/>
-    </row>
-    <row r="5" spans="2:67" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="BP4" s="3"/>
+    </row>
+    <row r="5" spans="2:68" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="35">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:68" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:68" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="35">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:68" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="35">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="E8" s="35">
+        <v>2</v>
+      </c>
+      <c r="F8" s="35">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:68" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="35">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="35">
         <v>4</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:68" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="35">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="35">
         <v>4</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:68" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="35">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="35">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:68" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="35">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="35">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:68" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="35">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="35">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:68" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="35">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="35">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:68" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="37">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="35">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:68" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="35">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="35">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="35">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="35">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="35">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="35">
         <v>2</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="35">
         <v>19</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="35">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="35">
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="19">
         <v>45194</v>
       </c>
-      <c r="I20" s="35">
+      <c r="J20" s="19">
         <v>45201</v>
       </c>
-      <c r="J20" s="35">
+      <c r="K20" s="19">
         <v>45208</v>
       </c>
-      <c r="K20" s="35">
+      <c r="L20" s="19">
         <v>45215</v>
       </c>
-      <c r="L20" s="35">
+      <c r="M20" s="19">
         <v>45222</v>
       </c>
-      <c r="M20" s="35">
+      <c r="N20" s="19">
         <v>45229</v>
       </c>
-      <c r="N20" s="35">
+      <c r="O20" s="19">
         <v>45236</v>
       </c>
-      <c r="O20" s="35">
+      <c r="P20" s="19">
         <v>45243</v>
       </c>
-      <c r="P20" s="35">
+      <c r="Q20" s="19">
         <v>45250</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="R20" s="19">
         <v>45257</v>
       </c>
-      <c r="R20" s="35">
+      <c r="S20" s="19">
         <v>45264</v>
       </c>
-      <c r="S20" s="35">
+      <c r="T20" s="19">
         <v>45271</v>
       </c>
-      <c r="T20" s="35">
+      <c r="U20" s="19">
         <v>45278</v>
       </c>
-      <c r="U20" s="35">
+      <c r="V20" s="19">
         <v>45285</v>
       </c>
-      <c r="V20" s="35">
+      <c r="W20" s="19">
         <v>44927</v>
       </c>
-      <c r="W20" s="35">
+      <c r="X20" s="19">
         <v>44934</v>
       </c>
-      <c r="X20" s="35">
+      <c r="Y20" s="19">
         <v>44941</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="Z20" s="19">
         <v>44948</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="33" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AJ2:AQ2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AH2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO19">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>PourcentageAccompli</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>PourcentageAccompliAuDelà</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>Réel</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>RéelAuDelà</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15">
-      <formula>H$4=période_sélectionnée</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="19">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:BO20">
-    <cfRule type="expression" dxfId="1" priority="10">
+  <conditionalFormatting sqref="B20:BP20">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="16">
-      <formula>H$4=période_sélectionnée</formula>
+  <conditionalFormatting sqref="I4:BP4">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>I$4=période_sélectionnée</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:BP19">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>PourcentageAccompli</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>PourcentageAccompliAuDelà</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>Réel</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>RéelAuDelà</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>I$4=période_sélectionnée</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes pour les intervalles. Début=1 est la période 1 et durée=5 indique que le projet dure 5 périodes à partir de la période de début. Entrez les données à partir de B5 pour mettre à jour le graphique" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrez une valeur entre 1 et 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entrez une valeur entre 1 et 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="I2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="K2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="Q2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="V2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AI2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="I3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage d’achèvement du projet dans la colonne G, en commençant par la cellule G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage d’achèvement du projet dans la colonne G, en commençant par la cellule G5" sqref="G3:H4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en surbrillance une période dans H2. La légende du graphique se trouve dans les cellules J2 à AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez la période à mettre en surbrillance dans H2. Une légende de graphique se trouve dans les cellules J2 à AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
